--- a/examples/wangetal2018/out/NetworkFiles/PL_0.2_a_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/PL_0.2_a_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>pipe_name</t>
   </si>
@@ -45,85 +45,94 @@
     <t>steel_grade</t>
   </si>
   <si>
-    <t>PI01_pre_loop_cxn</t>
+    <t>PI01</t>
+  </si>
+  <si>
+    <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_0_loop</t>
   </si>
   <si>
-    <t>PI01_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI02</t>
+    <t>PI02_post_loop_cxn</t>
   </si>
   <si>
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_loop_cxn</t>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI04_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI05</t>
-  </si>
-  <si>
-    <t>PI06_pre_loop_cxn</t>
+    <t>PI05_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_2_loop</t>
   </si>
   <si>
-    <t>PI06_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI07</t>
+    <t>PI07_post_loop_cxn</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09</t>
+    <t>PI09_pre_loop_cxn</t>
+  </si>
+  <si>
+    <t>PS_3_loop</t>
+  </si>
+  <si>
+    <t>PI09_post_loop_cxn</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N02</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
-    <t>N02</t>
-  </si>
-  <si>
     <t>N03_C</t>
   </si>
   <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N05</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
-    <t>N05</t>
-  </si>
-  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N07</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
-    <t>N07</t>
-  </si>
-  <si>
     <t>N08_C</t>
   </si>
   <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>loop_cxn_node_ps_3</t>
   </si>
   <si>
     <t>N03</t>
@@ -562,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>10.58156556103749</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -617,7 +626,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -625,16 +634,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>10.58156556103749</v>
+        <v>26.8708206701382</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -643,7 +652,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -651,25 +660,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>641.35</v>
+        <v>695.35</v>
       </c>
       <c r="E4">
-        <v>29.41843443896251</v>
+        <v>66.8708206701382</v>
       </c>
       <c r="F4">
         <v>0.012</v>
       </c>
       <c r="G4">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -677,16 +686,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>3.129179329861799</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -695,7 +704,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -703,10 +712,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>641.35</v>
@@ -721,7 +730,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -729,16 +738,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>25.3560209955128</v>
+        <v>48.5</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -747,7 +756,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -755,16 +764,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>56.8560209955128</v>
+        <v>45.92272549759625</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -773,7 +782,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -784,13 +793,13 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>641.35</v>
+        <v>793.75</v>
       </c>
       <c r="E9">
-        <v>23.1439790044872</v>
+        <v>125.9227254975962</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -799,7 +808,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -807,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>4.077274502403753</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -825,7 +834,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -833,16 +842,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>9.864039200558242</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -851,7 +860,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -859,16 +868,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>9.864039200558242</v>
+        <v>37.53571122460042</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -877,7 +886,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -885,25 +894,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>641.35</v>
+        <v>644.55</v>
       </c>
       <c r="E13">
-        <v>40.13596079944176</v>
+        <v>87.53571122460042</v>
       </c>
       <c r="F13">
         <v>0.012</v>
       </c>
       <c r="G13">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -911,16 +920,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>641.35</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>12.46428877539958</v>
       </c>
       <c r="F14">
         <v>0.012</v>
@@ -929,7 +938,7 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -937,10 +946,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>641.35</v>
@@ -955,7 +964,7 @@
         <v>9.525</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -963,16 +972,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>641.35</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>7.268245333927688</v>
       </c>
       <c r="F16">
         <v>0.012</v>
@@ -981,7 +990,59 @@
         <v>9.525</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>644.55</v>
+      </c>
+      <c r="E17">
+        <v>57.26824533392769</v>
+      </c>
+      <c r="F17">
+        <v>0.012</v>
+      </c>
+      <c r="G17">
+        <v>7.925</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>641.35</v>
+      </c>
+      <c r="E18">
+        <v>42.73175466607231</v>
+      </c>
+      <c r="F18">
+        <v>0.012</v>
+      </c>
+      <c r="G18">
+        <v>9.525</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -999,138 +1060,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>4.71984827318464</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1217,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1157,33 +1226,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E2">
         <v>12.5</v>
@@ -1200,16 +1269,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E3">
         <v>12.5</v>
@@ -1226,16 +1295,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="E4">
         <v>12.5</v>
@@ -1265,27 +1334,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
     </row>
   </sheetData>
@@ -1303,21 +1372,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1325,10 +1394,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1336,10 +1405,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1360,15 +1429,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -1376,7 +1445,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>0.2</v>

--- a/examples/wangetal2018/out/NetworkFiles/PL_0.2_a_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/PL_0.2_a_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="97">
   <si>
     <t>pipe_name</t>
   </si>
@@ -45,9 +45,18 @@
     <t>steel_grade</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
@@ -57,12 +66,27 @@
     <t>PI02_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
@@ -72,9 +96,21 @@
     <t>PI05_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
@@ -84,55 +120,115 @@
     <t>PI07_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_pre_loop_cxn</t>
+    <t>PI09_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_3_loop</t>
   </si>
   <si>
-    <t>PI09_post_loop_cxn</t>
+    <t>PI09_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
     <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N03</t>
@@ -571,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,16 +704,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -626,7 +722,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -634,16 +730,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>26.8708206701382</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -652,7 +748,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -660,25 +756,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>695.35</v>
+        <v>641.35</v>
       </c>
       <c r="E4">
-        <v>66.8708206701382</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F4">
         <v>0.012</v>
       </c>
       <c r="G4">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -686,16 +782,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>3.129179329861799</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -704,7 +800,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -712,16 +808,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>31.5</v>
+        <v>12.39230554059057</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -730,7 +826,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -738,25 +834,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>641.35</v>
+        <v>695.35</v>
       </c>
       <c r="E7">
-        <v>48.5</v>
+        <v>67.39230554059057</v>
       </c>
       <c r="F7">
         <v>0.012</v>
       </c>
       <c r="G7">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -764,16 +860,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>45.92272549759625</v>
+        <v>2.60769445940943</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -782,7 +878,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -790,16 +886,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>793.75</v>
+        <v>641.35</v>
       </c>
       <c r="E9">
-        <v>125.9227254975962</v>
+        <v>15.75</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -808,7 +904,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -816,16 +912,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>4.077274502403753</v>
+        <v>15.75</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -834,7 +930,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -842,16 +938,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -860,7 +956,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -868,16 +964,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>37.53571122460042</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -886,7 +982,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -894,25 +990,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>644.55</v>
+        <v>641.35</v>
       </c>
       <c r="E13">
-        <v>87.53571122460042</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F13">
         <v>0.012</v>
       </c>
       <c r="G13">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -920,16 +1016,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>641.35</v>
       </c>
       <c r="E14">
-        <v>12.46428877539958</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F14">
         <v>0.012</v>
@@ -938,7 +1034,7 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -946,16 +1042,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>641.35</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F15">
         <v>0.012</v>
@@ -964,7 +1060,7 @@
         <v>9.525</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -972,16 +1068,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>641.35</v>
       </c>
       <c r="E16">
-        <v>7.268245333927688</v>
+        <v>13.13168208587632</v>
       </c>
       <c r="F16">
         <v>0.012</v>
@@ -990,7 +1086,7 @@
         <v>9.525</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -998,25 +1094,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>644.55</v>
+        <v>793.75</v>
       </c>
       <c r="E17">
-        <v>57.26824533392769</v>
+        <v>126.4650154192097</v>
       </c>
       <c r="F17">
         <v>0.012</v>
       </c>
       <c r="G17">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1024,25 +1120,441 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>641.35</v>
+      </c>
+      <c r="E18">
+        <v>3.534984580790347</v>
+      </c>
+      <c r="F18">
+        <v>0.012</v>
+      </c>
+      <c r="G18">
+        <v>9.525</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>641.35</v>
+      </c>
+      <c r="E19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F19">
+        <v>0.012</v>
+      </c>
+      <c r="G19">
+        <v>9.525</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>641.35</v>
+      </c>
+      <c r="E20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F20">
+        <v>0.012</v>
+      </c>
+      <c r="G20">
+        <v>9.525</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>641.35</v>
+      </c>
+      <c r="E21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F21">
+        <v>0.012</v>
+      </c>
+      <c r="G21">
+        <v>9.525</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>641.35</v>
+      </c>
+      <c r="E22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F22">
+        <v>0.012</v>
+      </c>
+      <c r="G22">
+        <v>9.525</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>641.35</v>
+      </c>
+      <c r="E23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F23">
+        <v>0.012</v>
+      </c>
+      <c r="G23">
+        <v>9.525</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>641.35</v>
+      </c>
+      <c r="E24">
+        <v>5.34796544310305</v>
+      </c>
+      <c r="F24">
+        <v>0.012</v>
+      </c>
+      <c r="G24">
+        <v>9.525</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>644.55</v>
+      </c>
+      <c r="E25">
+        <v>88.68129877643639</v>
+      </c>
+      <c r="F25">
+        <v>0.012</v>
+      </c>
+      <c r="G25">
+        <v>7.925</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>641.35</v>
+      </c>
+      <c r="E26">
+        <v>11.31870122356362</v>
+      </c>
+      <c r="F26">
+        <v>0.012</v>
+      </c>
+      <c r="G26">
+        <v>9.525</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>641.35</v>
+      </c>
+      <c r="E27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F27">
+        <v>0.012</v>
+      </c>
+      <c r="G27">
+        <v>9.525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>641.35</v>
+      </c>
+      <c r="E28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F28">
+        <v>0.012</v>
+      </c>
+      <c r="G28">
+        <v>9.525</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>641.35</v>
+      </c>
+      <c r="E29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F29">
+        <v>0.012</v>
+      </c>
+      <c r="G29">
+        <v>9.525</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>641.35</v>
+      </c>
+      <c r="E30">
+        <v>9.232469235722483</v>
+      </c>
+      <c r="F30">
+        <v>0.012</v>
+      </c>
+      <c r="G30">
+        <v>9.525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18">
-        <v>641.35</v>
-      </c>
-      <c r="E18">
-        <v>42.73175466607231</v>
-      </c>
-      <c r="F18">
-        <v>0.012</v>
-      </c>
-      <c r="G18">
-        <v>9.525</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>644.55</v>
+      </c>
+      <c r="E31">
+        <v>59.23246923572248</v>
+      </c>
+      <c r="F31">
+        <v>0.012</v>
+      </c>
+      <c r="G31">
+        <v>7.925</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>641.35</v>
+      </c>
+      <c r="E32">
+        <v>7.434197430944185</v>
+      </c>
+      <c r="F32">
+        <v>0.012</v>
+      </c>
+      <c r="G32">
+        <v>9.525</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>641.35</v>
+      </c>
+      <c r="E33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F33">
+        <v>0.012</v>
+      </c>
+      <c r="G33">
+        <v>9.525</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>641.35</v>
+      </c>
+      <c r="E34">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F34">
+        <v>0.012</v>
+      </c>
+      <c r="G34">
+        <v>9.525</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1060,15 +1572,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>4.71984827318464</v>
@@ -1076,7 +1588,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>4.71984827318464</v>
@@ -1084,7 +1596,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>4.71984827318464</v>
@@ -1092,7 +1604,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>4.71984827318464</v>
@@ -1100,7 +1612,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>4.71984827318464</v>
@@ -1108,7 +1620,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>4.71984827318464</v>
@@ -1116,7 +1628,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>4.71984827318464</v>
@@ -1124,7 +1636,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>4.71984827318464</v>
@@ -1132,7 +1644,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>4.71984827318464</v>
@@ -1140,7 +1652,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>4.71984827318464</v>
@@ -1148,7 +1660,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>4.71984827318464</v>
@@ -1156,7 +1668,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>4.71984827318464</v>
@@ -1164,7 +1676,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>4.71984827318464</v>
@@ -1172,7 +1684,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>4.71984827318464</v>
@@ -1180,7 +1692,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>4.71984827318464</v>
@@ -1188,7 +1700,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>4.71984827318464</v>
@@ -1196,9 +1708,137 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B18">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>4.71984827318464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34">
         <v>4.71984827318464</v>
       </c>
     </row>
@@ -1217,7 +1857,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1226,30 +1866,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>4.71984827318464</v>
@@ -1269,13 +1909,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>4.71984827318464</v>
@@ -1295,13 +1935,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>4.71984827318464</v>
@@ -1334,24 +1974,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>4.71984827318464</v>
@@ -1372,21 +2012,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1394,10 +2034,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1405,10 +2045,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1429,15 +2069,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -1445,7 +2085,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>0.2</v>
